--- a/static/files/sample.xlsx
+++ b/static/files/sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>帳號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,16 +37,12 @@
     <t>密碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>信箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,15 +53,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -89,25 +76,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,15 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,27 +383,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
